--- a/biology/Histoire de la zoologie et de la botanique/John_Kirk_Townsend/John_Kirk_Townsend.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Kirk_Townsend/John_Kirk_Townsend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Kirk Townsend est un ornithologue et un naturaliste américain, né le 10 août 1809 à Philadelphie et mort le 6 février 1851 à Washington D.C..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles Townsend et de Priscilla née Kirk. Il se marie avec Charlotte Holmes, union dont il aura un enfant. Il participe en 1835 à une expédition dans l’Oregon puis à Hawaii. Il est chirurgien dans le fort de Vancouver de 1835 à 1836 où il commence à constituer une riche collection de mammifères et d’oiseaux.
 Townsend participe à Ornithology of the United States of North America (1840). Sa collection sert de modèle pour le dernier volume de Birds of America (1844) de John James Audubon (1785-1851). Ses mammifères sont utilisés par Audubon et John Bachman (1790-1874) dans Viviparous Quadrupeds of North America.
@@ -544,7 +558,9 @@
           <t>Éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Taupe de Townsend lui doit son nom. John James Audubon (1785-1851) lui dédie le solitaire de Townsend (Myadestes townsendi) en 1838, et John Bachman (1790-1874) le lièvre de Townsend ( Lepus townsendii) en 1839.
 </t>
